--- a/doc/kapai发布时的地址表_20230703.xlsx
+++ b/doc/kapai发布时的地址表_20230703.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32660" windowHeight="14540"/>
+    <workbookView windowWidth="27105" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +150,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -163,46 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,90 +218,82 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,7 +308,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,115 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,61 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,16 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +617,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,172 +640,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,13 +809,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,8 +911,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9069070" y="0"/>
-          <a:ext cx="5675630" cy="821055"/>
+          <a:off x="14223365" y="0"/>
+          <a:ext cx="11410950" cy="821055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,8 +949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9069070" y="914400"/>
-          <a:ext cx="3648075" cy="1630680"/>
+          <a:off x="14223365" y="914400"/>
+          <a:ext cx="6515735" cy="1630680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,8 +987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9069070" y="3352800"/>
-          <a:ext cx="6993890" cy="1820545"/>
+          <a:off x="14223365" y="3352800"/>
+          <a:ext cx="14163040" cy="1820545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,8 +1025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9069070" y="5486400"/>
-          <a:ext cx="2743200" cy="6096000"/>
+          <a:off x="14223365" y="5486400"/>
+          <a:ext cx="5610860" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,14 +1302,15 @@
   <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6634615384615" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="18.6622222222222" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="68.6634615384615" customWidth="1"/>
-    <col min="3" max="16381" width="18.6634615384615" customWidth="1"/>
+    <col min="1" max="1" width="30.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="68.6622222222222" customWidth="1"/>
+    <col min="3" max="16381" width="18.6622222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -1344,123 +1329,123 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
